--- a/PainTrax.Web/wwwroot/Uploads/AccidentType.xlsx
+++ b/PainTrax.Web/wwwroot/Uploads/AccidentType.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Paintrax13\PainTrax.Web\wwwroot\Uploads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
@@ -16,19 +21,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>accidenttype</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
     <t>A2</t>
   </si>
+  <si>
+    <t>Accident Type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,7 +84,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A105" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="3" name="accidenttype"/>
+    <tableColumn id="3" name="Accident Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -372,9 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -383,17 +386,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
